--- a/new excel sheet.xlsx
+++ b/new excel sheet.xlsx
@@ -16,6 +16,32 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+  <si>
+    <t>dwdf</t>
+  </si>
+  <si>
+    <t>rgg</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>rg</t>
+  </si>
+  <si>
+    <t>rfqweefg</t>
+  </si>
+  <si>
+    <t>regerg</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -331,12 +357,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/new excel sheet.xlsx
+++ b/new excel sheet.xlsx
@@ -357,10 +357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -397,6 +397,38 @@
         <v>6</v>
       </c>
     </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <v>6</v>
+      </c>
+      <c r="G2">
+        <v>7</v>
+      </c>
+      <c r="H2">
+        <v>8</v>
+      </c>
+      <c r="I2">
+        <v>9</v>
+      </c>
+      <c r="J2">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
